--- a/Python/mediciones.xlsx
+++ b/Python/mediciones.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,13 +471,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45982.7337120099</v>
+        <v>45990.64142502401</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -495,13 +495,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45982.73372111338</v>
+        <v>45990.64142567302</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>225</v>
+        <v>470</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45982.73372538037</v>
+        <v>45990.64142653601</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45982.73372703683</v>
+        <v>45990.64142694679</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>227</v>
+        <v>472</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45982.7337298736</v>
+        <v>45990.64142711972</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -591,69 +591,69 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>228</v>
+        <v>473</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45982.73375048131</v>
+        <v>45990.64142788355</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG6</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.35</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>229</v>
+        <v>474</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45982.733757089</v>
+        <v>45990.64142837228</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG7</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.11</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>m3/H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>230</v>
+        <v>475</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45982.73375991664</v>
+        <v>45990.64142894681</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG8</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -663,233 +663,233 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45982.73376230062</v>
+        <v>45990.64143078618</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG9</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>232</v>
+        <v>477</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45982.73376505045</v>
+        <v>45990.64143183026</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG10</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>233</v>
+        <v>478</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45982.73378488026</v>
+        <v>45990.64143314163</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG11</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.35</v>
+        <v>70</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>234</v>
+        <v>479</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45982.73378778034</v>
+        <v>45990.64143354593</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TAG2</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>20.11</v>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>psi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>235</v>
+        <v>480</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45982.73379185215</v>
+        <v>45990.64143462205</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG13</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>psi</t>
+          <t>gal</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>236</v>
+        <v>481</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45982.73379393155</v>
+        <v>45990.64143517119</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>237</v>
+        <v>482</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45982.73379480366</v>
+        <v>45990.64143603556</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG15</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45982.73381481328</v>
+        <v>45990.64143820021</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG16</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.35</v>
+        <v>10</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>239</v>
+        <v>484</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45982.73381766929</v>
+        <v>45990.64143954603</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG17</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.11</v>
+        <v>14</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>240</v>
+        <v>485</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45982.73382372029</v>
+        <v>45990.64144006616</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG18</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -903,61 +903,61 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>241</v>
+        <v>486</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45982.73382612855</v>
+        <v>45990.6414401588</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG19</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>242</v>
+        <v>487</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45982.73382815184</v>
+        <v>45990.64144140218</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG20</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>243</v>
+        <v>488</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45982.73384822358</v>
+        <v>45990.6415048737</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -975,13 +975,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>244</v>
+        <v>489</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45982.73385198849</v>
+        <v>45990.64150500156</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45982.73385808366</v>
+        <v>45990.64150556557</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>246</v>
+        <v>491</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45982.73385835743</v>
+        <v>45990.64150614769</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1047,13 +1047,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>247</v>
+        <v>492</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45982.73386094058</v>
+        <v>45990.64150658287</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1071,69 +1071,69 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45982.73401336771</v>
+        <v>45990.64150744286</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG6</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.35</v>
+        <v>5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>249</v>
+        <v>494</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45982.734017183</v>
+        <v>45990.64150870493</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG7</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.11</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>m3/H</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250</v>
+        <v>495</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45982.73401878023</v>
+        <v>45990.64150911485</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG8</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1143,233 +1143,233 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251</v>
+        <v>496</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45982.73402138756</v>
+        <v>45990.64151001065</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG9</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252</v>
+        <v>497</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45982.73402458966</v>
+        <v>45990.64151041008</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG10</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253</v>
+        <v>498</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45982.73404468631</v>
+        <v>45990.64151055587</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG11</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.35</v>
+        <v>70</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>254</v>
+        <v>499</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45982.7340480033</v>
+        <v>45990.64151126711</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TAG2</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>20.11</v>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>psi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45982.73405507391</v>
+        <v>45990.64151240987</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG13</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>psi</t>
+          <t>gal</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>256</v>
+        <v>501</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45982.73405548167</v>
+        <v>45990.6415125846</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG14</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>257</v>
+        <v>502</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45982.73405673544</v>
+        <v>45990.64151383243</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG15</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>258</v>
+        <v>503</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45982.73407814329</v>
+        <v>45990.64151447963</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG16</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.35</v>
+        <v>10</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45982.73407974632</v>
+        <v>45990.64151638868</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG17</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.11</v>
+        <v>14</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>260</v>
+        <v>505</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45982.73408172496</v>
+        <v>45990.64152037785</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG18</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1383,61 +1383,61 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>261</v>
+        <v>506</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45982.73408413638</v>
+        <v>45990.64152367107</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG19</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>262</v>
+        <v>507</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45982.73409217387</v>
+        <v>45990.6415244014</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG20</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>263</v>
+        <v>508</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45982.73411748212</v>
+        <v>45990.64805793924</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>264</v>
+        <v>509</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45982.73412104801</v>
+        <v>45990.64805864345</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>265</v>
+        <v>510</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45982.73412653072</v>
+        <v>45990.64805954776</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>266</v>
+        <v>511</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45982.73412962377</v>
+        <v>45990.64806036021</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>267</v>
+        <v>512</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45982.73413134654</v>
+        <v>45990.64806049527</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1551,69 +1551,69 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>268</v>
+        <v>513</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45982.73414994987</v>
+        <v>45990.64806117996</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG6</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.35</v>
+        <v>5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>269</v>
+        <v>514</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45982.73415227629</v>
+        <v>45990.64806126488</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG7</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20.11</v>
+        <v>2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>m3/H</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>270</v>
+        <v>515</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45982.73415608769</v>
+        <v>45990.64806248294</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG8</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1623,233 +1623,233 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>271</v>
+        <v>516</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45982.73416184566</v>
+        <v>45990.64806255943</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG9</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>272</v>
+        <v>517</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45982.734164051</v>
+        <v>45990.64806345817</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG10</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>273</v>
+        <v>518</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45982.734198252</v>
+        <v>45990.64806469578</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG11</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.35</v>
+        <v>70</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>274</v>
+        <v>519</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45982.73424806066</v>
+        <v>45990.64806560152</v>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>TAG2</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>20.11</v>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>psi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>275</v>
+        <v>520</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45982.73425683205</v>
+        <v>45990.64806615705</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG13</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>psi</t>
+          <t>gal</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>276</v>
+        <v>521</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45982.73425976919</v>
+        <v>45990.64806700286</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG14</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>277</v>
+        <v>522</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45982.73429018108</v>
+        <v>45990.64806712046</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG15</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>278</v>
+        <v>523</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45982.73437846706</v>
+        <v>45990.64806783171</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG16</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.35</v>
+        <v>10</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>279</v>
+        <v>524</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45982.73438451854</v>
+        <v>45990.64806839376</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG17</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>20.11</v>
+        <v>14</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>280</v>
+        <v>525</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45982.7343854506</v>
+        <v>45990.64806888739</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG18</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1863,61 +1863,61 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>281</v>
+        <v>526</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45982.73438570257</v>
+        <v>45990.64806966037</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG19</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>282</v>
+        <v>527</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45982.73438941273</v>
+        <v>45990.64806980229</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG20</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>283</v>
+        <v>528</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45982.73440916117</v>
+        <v>45990.64808540391</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>284</v>
+        <v>529</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45982.73441546602</v>
+        <v>45990.64808586664</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>285</v>
+        <v>530</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45982.73441749309</v>
+        <v>45990.64808674267</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>286</v>
+        <v>531</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45982.7344213014</v>
+        <v>45990.64808786219</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>287</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45982.73442458353</v>
+        <v>45990.64808838861</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2031,69 +2031,69 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>288</v>
+        <v>533</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45982.73445443199</v>
+        <v>45990.64808847915</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG6</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.35</v>
+        <v>5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>289</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45982.73445568606</v>
+        <v>45990.64809027418</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG7</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.11</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>m3/H</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>290</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45982.73445914892</v>
+        <v>45990.64809073479</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG8</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2103,233 +2103,233 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>291</v>
+        <v>536</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45982.73445937374</v>
+        <v>45990.64809162639</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG9</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>292</v>
+        <v>537</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45982.73446278924</v>
+        <v>45990.6480932671</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG10</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>293</v>
+        <v>538</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45982.73449769015</v>
+        <v>45990.64809343213</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG11</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.35</v>
+        <v>70</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45982.73449996985</v>
+        <v>45990.64809456231</v>
       </c>
       <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>TAG2</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>20.11</v>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>psi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45982.73450210033</v>
+        <v>45990.64809551257</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG13</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>psi</t>
+          <t>gal</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45982.73450517332</v>
+        <v>45990.64809562916</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG14</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>297</v>
+        <v>542</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45982.73450819255</v>
+        <v>45990.64809620601</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG15</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>298</v>
+        <v>543</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45982.73452700986</v>
+        <v>45990.6480973154</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG16</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.35</v>
+        <v>10</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>299</v>
+        <v>544</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45982.73453427706</v>
+        <v>45990.64809815279</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG17</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.11</v>
+        <v>14</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>300</v>
+        <v>545</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45982.73453453204</v>
+        <v>45990.64809824766</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG18</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2343,61 +2343,61 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>301</v>
+        <v>546</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45982.73453628831</v>
+        <v>45990.64809951501</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG19</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>302</v>
+        <v>547</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45982.7345384825</v>
+        <v>45990.64810130449</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG20</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>303</v>
+        <v>548</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45982.73456705793</v>
+        <v>45990.64811670672</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>304</v>
+        <v>549</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45982.73457156628</v>
+        <v>45990.64811755525</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45982.73457593506</v>
+        <v>45990.64811773159</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>306</v>
+        <v>551</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45982.73458013851</v>
+        <v>45990.64811834921</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>307</v>
+        <v>552</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45982.73458252302</v>
+        <v>45990.64811931639</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2511,69 +2511,69 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45982.73460302205</v>
+        <v>45990.6481202872</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG6</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.35</v>
+        <v>5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>309</v>
+        <v>554</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45982.73460912151</v>
+        <v>45990.64812108329</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG7</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.11</v>
+        <v>2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>m3/H</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>310</v>
+        <v>555</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45982.73461164555</v>
+        <v>45990.64812202929</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG8</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2583,233 +2583,233 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>311</v>
+        <v>556</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45982.73461273219</v>
+        <v>45990.64812231825</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG9</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>312</v>
+        <v>557</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45982.73461537701</v>
+        <v>45990.64812320688</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG10</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>313</v>
+        <v>558</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45982.73463671955</v>
+        <v>45990.64812373769</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG11</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.35</v>
+        <v>70</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>314</v>
+        <v>559</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45982.73463843716</v>
+        <v>45990.64812426235</v>
       </c>
       <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>TAG2</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>20.11</v>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>psi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>315</v>
+        <v>560</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45982.73464098702</v>
+        <v>45990.64812488009</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG13</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>psi</t>
+          <t>gal</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45982.73464459965</v>
+        <v>45990.6481256331</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG14</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>317</v>
+        <v>562</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45982.73464919911</v>
+        <v>45990.64812650787</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TAG5</t>
+          <t>TAG15</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>m3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>318</v>
+        <v>563</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45982.73467253525</v>
+        <v>45990.64812764373</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TAG1</t>
+          <t>TAG16</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.35</v>
+        <v>10</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>m3/h</t>
+          <t>cm</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>319</v>
+        <v>564</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45982.73467633175</v>
+        <v>45990.64812781376</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TAG2</t>
+          <t>TAG17</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.11</v>
+        <v>14</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>oC</t>
+          <t>lts</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>320</v>
+        <v>565</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45982.73467790794</v>
+        <v>45990.64812855353</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TAG3</t>
+          <t>TAG18</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2823,49 +2823,1969 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>321</v>
+        <v>566</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45982.73472018866</v>
+        <v>45990.64812969286</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TAG4</t>
+          <t>TAG19</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>lt/h</t>
+          <t>oC</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>322</v>
+        <v>567</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45982.7347686393</v>
+        <v>45990.6481298389</v>
       </c>
       <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TAG20</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>55</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>568</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45990.64814671565</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TAG1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>569</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45990.64814849554</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TAG2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>570</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45990.64814986192</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TAG3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>571</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45990.64815076889</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TAG4</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>50</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>lt/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>572</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45990.64815132299</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TAG5</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>300</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>573</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45990.64815173865</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TAG6</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>574</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45990.64815264015</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TAG7</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>m3/H</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>575</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45990.64815385838</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TAG8</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>576</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45990.64815447298</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TAG9</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>15</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>577</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45990.64815557143</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TAG10</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>578</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45990.64815574016</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TAG11</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>70</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>579</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45990.64815722125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>580</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45990.64815759504</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TAG13</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>gal</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>581</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45990.64815810192</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TAG14</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>35</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>582</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45990.64815921393</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TAG15</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>22</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>583</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45990.64816013246</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TAG16</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>584</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45990.64816067257</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TAG17</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>14</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>585</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45990.64816180602</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TAG18</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>586</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45990.64816206432</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TAG19</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>11</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>587</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45990.64816320856</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TAG20</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>55</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>588</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45990.64817943433</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TAG1</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>589</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45990.64818036732</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TAG2</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>590</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45990.64818285972</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TAG3</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>591</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45990.6481840287</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TAG4</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>50</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>lt/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>592</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45990.64818408791</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>TAG5</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="E126" t="n">
         <v>300</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>593</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45990.64818537545</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TAG6</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>5</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>594</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45990.64818552889</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>TAG7</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>m3/H</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>595</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45990.6481864138</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>TAG8</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>596</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45990.64818757412</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>TAG9</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>15</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>597</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45990.64818828787</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>TAG10</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>598</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45990.64818870588</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TAG11</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>70</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>599</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45990.64819037093</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>600</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45990.64819047615</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>TAG13</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>gal</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>601</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45990.64819119001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>TAG14</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>35</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>602</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45990.64819167431</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>TAG15</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>22</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>603</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45990.64819248363</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>TAG16</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>10</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>604</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45990.64819314678</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TAG17</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>14</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>605</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45990.64819335334</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TAG18</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>606</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45990.64819458908</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>TAG19</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>11</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>607</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45990.64819476062</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>TAG20</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>55</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>608</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45990.64821442463</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>TAG1</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>609</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45990.64821491622</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TAG2</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>610</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45990.64821535291</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TAG3</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>611</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45990.64821690073</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>TAG4</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>50</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>lt/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>612</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45990.64821699891</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>TAG5</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>300</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>613</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45990.64821787845</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TAG6</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>5</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>614</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45990.64821847494</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>TAG7</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>m3/H</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>615</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45990.64821920845</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>TAG8</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>616</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45990.64822048161</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>TAG9</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>15</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>617</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45990.64822087608</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>TAG10</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>618</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45990.64822179126</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>TAG11</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>70</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>619</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45990.64822267964</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>620</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45990.64822321445</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>TAG13</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>gal</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>621</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45990.64822517926</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>TAG14</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>35</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>622</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45990.64822560814</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>TAG15</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>22</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>623</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45990.64822577904</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>TAG16</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>10</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>624</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45990.6482273701</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>TAG17</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>14</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>625</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45990.64822826639</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>TAG18</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>626</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45990.64822832089</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>TAG19</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>11</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>627</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45990.648229559</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>TAG20</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>55</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>628</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45990.64824533938</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>TAG1</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>629</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45990.64824686369</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>TAG2</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>630</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45990.64824699824</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>TAG3</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>631</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45990.64824749691</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>TAG4</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>50</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>lt/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>632</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45990.64824924003</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>TAG5</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>300</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>633</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45990.64825065579</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>TAG6</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>634</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45990.64825175708</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>TAG7</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>m3/H</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>635</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45990.64825307382</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>TAG8</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>636</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45990.64825379806</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>TAG9</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>15</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>637</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45990.64825486502</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>TAG10</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>m3/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>638</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45990.64825529658</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>TAG11</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>70</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>639</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45990.64825637258</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>TAG12</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>640</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45990.64825690744</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>TAG13</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>gal</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>641</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45990.64825757904</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>TAG14</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>35</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>642</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45990.64825838077</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>TAG15</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>22</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>643</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45990.64825860051</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>TAG16</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>10</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>644</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45990.64825985891</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>TAG17</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>14</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>lts</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>645</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45990.64825999413</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>TAG18</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>psi</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>646</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45990.64826063172</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>TAG19</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>11</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>oC</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>647</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45990.64826113565</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>TAG20</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>55</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>m3/h</t>
         </is>
       </c>
     </row>
